--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_12_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_12_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53399.83422384715</v>
+        <v>10626567.01054558</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53399.83422384715</v>
+        <v>10626567.01054558</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5557.130946541057</v>
+        <v>733220.1595873182</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5557.130946541057</v>
+        <v>733220.1595873182</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418948051.409612</v>
+        <v>57804549.60115317</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11630.81524069998</v>
+        <v>1273979.273056675</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22556.78087904938</v>
+        <v>2438264.635055982</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33482.74651739878</v>
+        <v>3602549.997055291</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44905.62542043485</v>
+        <v>4784515.643303299</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56241.07644468304</v>
+        <v>5949083.14167252</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67576.52746893121</v>
+        <v>7113650.640041738</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78911.97849317937</v>
+        <v>8278218.138410954</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90247.42951742755</v>
+        <v>9442785.636780169</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101574.1603956426</v>
+        <v>10607425.73363327</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112902.316728403</v>
+        <v>11772349.49594091</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124230.4730611635</v>
+        <v>12937273.25824856</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135061.9382056947</v>
+        <v>14084057.41108909</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145980.8312290137</v>
+        <v>15248239.71180841</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157834.6882354039</v>
+        <v>16280107.46648935</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>169688.5452417941</v>
+        <v>17311975.22117028</v>
       </c>
     </row>
   </sheetData>
